--- a/ctl-angular/src/assets/NOTICIAS.xlsx
+++ b/ctl-angular/src/assets/NOTICIAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-angular\ctl-angular\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC77C2-10A5-426A-B3A5-89926E268F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FA2B4B-D1D7-4037-89ED-57D668649627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -545,6 +545,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
